--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_11.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_11.xlsx
@@ -508,50 +508,50 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_11_7</t>
+          <t>model_1_11_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9989513160919118</v>
+        <v>0.9468648254378301</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8202647906923222</v>
+        <v>0.7183119695907705</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8053698724291605</v>
+        <v>0.7756307373087585</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9972817315703872</v>
+        <v>0.9328030718934457</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004365174763955948</v>
+        <v>0.1705791702078244</v>
       </c>
       <c r="G2" t="n">
-        <v>1.201890172244982</v>
+        <v>1.883649156400633</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6961806810176834</v>
+        <v>0.8025558429692305</v>
       </c>
       <c r="I2" t="n">
-        <v>0.006835042650265159</v>
+        <v>0.1156796652293183</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1393890292597947</v>
+        <v>1.161934229901149</v>
       </c>
       <c r="K2" t="n">
-        <v>0.06606946922713962</v>
+        <v>0.4130123124167419</v>
       </c>
       <c r="L2" t="n">
-        <v>1.067115770117645</v>
+        <v>0.9276457197451304</v>
       </c>
       <c r="M2" t="n">
-        <v>0.06710999732222815</v>
+        <v>0.4195168434764613</v>
       </c>
       <c r="N2" t="n">
-        <v>140.8681941058611</v>
+        <v>37.53711149727361</v>
       </c>
       <c r="O2" t="n">
-        <v>282.2033666490775</v>
+        <v>74.50169508549943</v>
       </c>
     </row>
     <row r="3">
@@ -561,95 +561,95 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9990306429744119</v>
+        <v>0.9468569487883015</v>
       </c>
       <c r="C3" t="n">
-        <v>0.820114803333736</v>
+        <v>0.7182153162452577</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8056537457334452</v>
+        <v>0.7758377850973964</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9978744361689532</v>
+        <v>0.9333108601688687</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004034974497772821</v>
+        <v>0.1706044565149022</v>
       </c>
       <c r="G3" t="n">
-        <v>1.202893138402476</v>
+        <v>1.884295477767125</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6951652826681768</v>
+        <v>0.8018152450345934</v>
       </c>
       <c r="I3" t="n">
-        <v>0.005344696382003541</v>
+        <v>0.1148055065532675</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1333569329188099</v>
+        <v>1.164094530825167</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06352144911581301</v>
+        <v>0.413042923332312</v>
       </c>
       <c r="L3" t="n">
-        <v>1.062038849637638</v>
+        <v>0.9276349940947084</v>
       </c>
       <c r="M3" t="n">
-        <v>0.06452184844123381</v>
+        <v>0.419547936483352</v>
       </c>
       <c r="N3" t="n">
-        <v>141.0255105950695</v>
+        <v>37.5368150433392</v>
       </c>
       <c r="O3" t="n">
-        <v>282.3606831382859</v>
+        <v>74.50139863156502</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_11_9</t>
+          <t>model_1_11_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9990426575581286</v>
+        <v>0.9468462769829489</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8196063397315132</v>
+        <v>0.7181169458383483</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8058009340800448</v>
+        <v>0.7760471272641496</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9974133031807888</v>
+        <v>0.9338051211391779</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003984963472300772</v>
+        <v>0.1706387160749144</v>
       </c>
       <c r="G4" t="n">
-        <v>1.2062932368518</v>
+        <v>1.884953281131082</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6946387984868608</v>
+        <v>0.8010664402424736</v>
       </c>
       <c r="I4" t="n">
-        <v>0.006504207932522738</v>
+        <v>0.1139546351638697</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1287712853138422</v>
+        <v>1.166277586665257</v>
       </c>
       <c r="K4" t="n">
-        <v>0.06312656708788125</v>
+        <v>0.4130843934051666</v>
       </c>
       <c r="L4" t="n">
-        <v>1.06126991627977</v>
+        <v>0.9276204622746538</v>
       </c>
       <c r="M4" t="n">
-        <v>0.06412074741609934</v>
+        <v>0.4195900596683991</v>
       </c>
       <c r="N4" t="n">
-        <v>141.0504542661608</v>
+        <v>37.5364134580431</v>
       </c>
       <c r="O4" t="n">
-        <v>282.3856268093772</v>
+        <v>74.50099704626892</v>
       </c>
     </row>
     <row r="5">
@@ -659,340 +659,340 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9988766841594311</v>
+        <v>0.9468326785969357</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8189933008891069</v>
+        <v>0.7180167385133911</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8024394128148971</v>
+        <v>0.7762585555640602</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9978268884269381</v>
+        <v>0.9342848730620321</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004675832175343215</v>
+        <v>0.1706823707993303</v>
       </c>
       <c r="G5" t="n">
-        <v>1.210392630413754</v>
+        <v>1.885623367974483</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7066627651400922</v>
+        <v>0.8003101734730107</v>
       </c>
       <c r="I5" t="n">
-        <v>0.005464254421620315</v>
+        <v>0.1131287411328079</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1529487701810578</v>
+        <v>1.168481652953495</v>
       </c>
       <c r="K5" t="n">
-        <v>0.06838005685390453</v>
+        <v>0.4131372299845782</v>
       </c>
       <c r="L5" t="n">
-        <v>1.07189221379641</v>
+        <v>0.9276019453234868</v>
       </c>
       <c r="M5" t="n">
-        <v>0.06945697439437437</v>
+        <v>0.4196437283711193</v>
       </c>
       <c r="N5" t="n">
-        <v>140.7306962533231</v>
+        <v>37.53590186088333</v>
       </c>
       <c r="O5" t="n">
-        <v>282.0658687965395</v>
+        <v>74.50048544910915</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_11_3</t>
+          <t>model_1_11_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9985526848931418</v>
+        <v>0.9468160422995727</v>
       </c>
       <c r="C6" t="n">
-        <v>0.818885298300033</v>
+        <v>0.717914730371592</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7994221928642903</v>
+        <v>0.7764723654879597</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9982496952219263</v>
+        <v>0.9347494637384213</v>
       </c>
       <c r="F6" t="n">
-        <v>0.006024487771026682</v>
+        <v>0.1707357780916351</v>
       </c>
       <c r="G6" t="n">
-        <v>1.211114844224198</v>
+        <v>1.886305496888397</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7174551859549483</v>
+        <v>0.7995453877726337</v>
       </c>
       <c r="I6" t="n">
-        <v>0.004401113473109315</v>
+        <v>0.1123289472221674</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1806842847451146</v>
+        <v>1.170715159822132</v>
       </c>
       <c r="K6" t="n">
-        <v>0.07761757385429334</v>
+        <v>0.4132018611909137</v>
       </c>
       <c r="L6" t="n">
-        <v>1.092628166838928</v>
+        <v>0.9275792916419714</v>
       </c>
       <c r="M6" t="n">
-        <v>0.07883997305339009</v>
+        <v>0.4197093774543471</v>
       </c>
       <c r="N6" t="n">
-        <v>140.2238456409531</v>
+        <v>37.53527614965017</v>
       </c>
       <c r="O6" t="n">
-        <v>281.5590181841695</v>
+        <v>74.49985973787599</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_11_2</t>
+          <t>model_1_11_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9985246744732355</v>
+        <v>0.9467962202721436</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8188272495044918</v>
+        <v>0.7178108626253847</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7992575830700885</v>
+        <v>0.7766885331361654</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9981990895153615</v>
+        <v>0.9351972744098467</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00614108189167603</v>
+        <v>0.1707994124923602</v>
       </c>
       <c r="G7" t="n">
-        <v>1.211503016787272</v>
+        <v>1.887000060985554</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7180439856441834</v>
+        <v>0.7987721686291224</v>
       </c>
       <c r="I7" t="n">
-        <v>0.004528360715857232</v>
+        <v>0.1115580401284018</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1825237911027066</v>
+        <v>1.17296916520701</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07836505529683514</v>
+        <v>0.4132788556076396</v>
       </c>
       <c r="L7" t="n">
-        <v>1.094420833712931</v>
+        <v>0.9275522999450466</v>
       </c>
       <c r="M7" t="n">
-        <v>0.07959922658144461</v>
+        <v>0.4197875844561702</v>
       </c>
       <c r="N7" t="n">
-        <v>140.1855086969783</v>
+        <v>37.53453087474773</v>
       </c>
       <c r="O7" t="n">
-        <v>281.5206812401947</v>
+        <v>74.49911446297355</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_11_5</t>
+          <t>model_1_11_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9988012406898626</v>
+        <v>0.9467731132073381</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8187122378451869</v>
+        <v>0.7177050572188816</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8012375047376672</v>
+        <v>0.7769071944433952</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9979471161101507</v>
+        <v>0.9356280450335972</v>
       </c>
       <c r="F8" t="n">
-        <v>0.004989867631523539</v>
+        <v>0.1708735928064917</v>
       </c>
       <c r="G8" t="n">
-        <v>1.212272100282624</v>
+        <v>1.887707582226029</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7109619206417093</v>
+        <v>0.7979900298118724</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00516194382802749</v>
+        <v>0.1108164675156318</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1629367226963286</v>
+        <v>1.177594866025427</v>
       </c>
       <c r="K8" t="n">
-        <v>0.07063899511971797</v>
+        <v>0.4133685919448787</v>
       </c>
       <c r="L8" t="n">
-        <v>1.076720595848791</v>
+        <v>0.927520835005737</v>
       </c>
       <c r="M8" t="n">
-        <v>0.07175148867976455</v>
+        <v>0.4198787340510174</v>
       </c>
       <c r="N8" t="n">
-        <v>140.6006917926387</v>
+        <v>37.53366243838727</v>
       </c>
       <c r="O8" t="n">
-        <v>281.9358643358551</v>
+        <v>74.49824602661309</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_11_4</t>
+          <t>model_1_11_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9986638876843388</v>
+        <v>0.9467465456240075</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8184243135043422</v>
+        <v>0.7175972379942521</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7999975525853035</v>
+        <v>0.77712823828703</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9978661894922966</v>
+        <v>0.9360398649816697</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005561603183906769</v>
+        <v>0.1709588823789135</v>
       </c>
       <c r="G9" t="n">
-        <v>1.214197451675622</v>
+        <v>1.888428569877587</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7153971575941576</v>
+        <v>0.797199368800049</v>
       </c>
       <c r="I9" t="n">
-        <v>0.005365432519044732</v>
+        <v>0.1101075185343296</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1729606662038416</v>
+        <v>1.183743994530051</v>
       </c>
       <c r="K9" t="n">
-        <v>0.07457615693978048</v>
+        <v>0.4134717431444542</v>
       </c>
       <c r="L9" t="n">
-        <v>1.085511188202318</v>
+        <v>0.927484657870989</v>
       </c>
       <c r="M9" t="n">
-        <v>0.07575065686277516</v>
+        <v>0.4199835097788729</v>
       </c>
       <c r="N9" t="n">
-        <v>140.3837377397061</v>
+        <v>37.53266441063528</v>
       </c>
       <c r="O9" t="n">
-        <v>281.7189102829225</v>
+        <v>74.4972479988611</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_11_0</t>
+          <t>model_1_11_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9980208778605987</v>
+        <v>0.946716319739875</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8172015218020436</v>
+        <v>0.7174874749622051</v>
       </c>
       <c r="D10" t="n">
-        <v>0.795714740173918</v>
+        <v>0.7773519070491626</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9974566927236087</v>
+        <v>0.9364320073996341</v>
       </c>
       <c r="F10" t="n">
-        <v>0.008238148741550658</v>
+        <v>0.1710559161475348</v>
       </c>
       <c r="G10" t="n">
-        <v>1.222374265419331</v>
+        <v>1.889162555778298</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7307165292579516</v>
+        <v>0.7963993186069609</v>
       </c>
       <c r="I10" t="n">
-        <v>0.006395105618520676</v>
+        <v>0.1094324444660568</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2032002059748035</v>
+        <v>1.18998110449702</v>
       </c>
       <c r="K10" t="n">
-        <v>0.09076424814623134</v>
+        <v>0.4135890667649894</v>
       </c>
       <c r="L10" t="n">
-        <v>1.126663816921685</v>
+        <v>0.9274434992202554</v>
       </c>
       <c r="M10" t="n">
-        <v>0.09219369432357323</v>
+        <v>0.4201026811291509</v>
       </c>
       <c r="N10" t="n">
-        <v>139.5979592551795</v>
+        <v>37.53152956183175</v>
       </c>
       <c r="O10" t="n">
-        <v>280.9331317983959</v>
+        <v>74.49611315005757</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_11_1</t>
+          <t>model_1_11_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9980420485238505</v>
+        <v>0.9466824169782452</v>
       </c>
       <c r="C11" t="n">
-        <v>0.817038033137753</v>
+        <v>0.7173756170909558</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7958021741396387</v>
+        <v>0.7775780074509142</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9974080604804251</v>
+        <v>0.9368031228692937</v>
       </c>
       <c r="F11" t="n">
-        <v>0.008150025290575263</v>
+        <v>0.1711647537488833</v>
       </c>
       <c r="G11" t="n">
-        <v>1.223467514870238</v>
+        <v>1.889910549878401</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7304037830322812</v>
+        <v>0.7955905705799498</v>
       </c>
       <c r="I11" t="n">
-        <v>0.006517390619044336</v>
+        <v>0.108793568337321</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2015885753198083</v>
+        <v>1.196294531316684</v>
       </c>
       <c r="K11" t="n">
-        <v>0.09027749049777171</v>
+        <v>0.4137206228227973</v>
       </c>
       <c r="L11" t="n">
-        <v>1.125308894473569</v>
+        <v>0.9273973337576105</v>
       </c>
       <c r="M11" t="n">
-        <v>0.09169927072872951</v>
+        <v>0.4202363090633615</v>
       </c>
       <c r="N11" t="n">
-        <v>139.6194684971922</v>
+        <v>37.53025742821046</v>
       </c>
       <c r="O11" t="n">
-        <v>280.9546410404086</v>
+        <v>74.49484101643628</v>
       </c>
     </row>
   </sheetData>
